--- a/modelling/Modelling_Experiments.xlsx
+++ b/modelling/Modelling_Experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALISHA\Desktop\sentiment\modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B24AA3BC-9A69-47DD-AD13-EA47BE956D99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80349BB0-C51D-4F0F-BA62-60D29E5A37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAA4A312-815B-4DCA-97FF-3DB196F71A97}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="17">
   <si>
     <t>Training Instances</t>
   </si>
@@ -58,6 +58,24 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>KNN</t>
+  </si>
+  <si>
+    <t>Selected Features</t>
+  </si>
+  <si>
+    <t>Feature Selection</t>
+  </si>
+  <si>
+    <t>Tree Based</t>
   </si>
 </sst>
 </file>
@@ -73,12 +91,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -93,10 +117,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,22 +437,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05852316-5068-498E-818D-7EB28C5409E7}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="3" width="19.140625" customWidth="1"/>
-    <col min="4" max="4" width="22.42578125" customWidth="1"/>
-    <col min="5" max="7" width="18.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="2" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.42578125" customWidth="1"/>
+    <col min="7" max="9" width="18.28515625" customWidth="1"/>
+    <col min="10" max="10" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -434,206 +460,869 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" t="s">
         <v>9</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4000</v>
       </c>
       <c r="B2">
         <v>1500</v>
       </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
+      <c r="D2" t="b">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H2" s="1">
         <v>0.76</v>
       </c>
-      <c r="G2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4000</v>
       </c>
       <c r="B3">
         <v>3000</v>
       </c>
-      <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
+      <c r="D3" t="b">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <v>0.78</v>
       </c>
-      <c r="G3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>4000</v>
       </c>
       <c r="B4">
         <v>5000</v>
       </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" t="s">
-        <v>6</v>
+      <c r="D4" t="b">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <v>0.79374999999999996</v>
       </c>
-      <c r="G4">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4000</v>
       </c>
       <c r="B5">
         <v>1500</v>
       </c>
-      <c r="C5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" t="s">
-        <v>6</v>
+      <c r="D5" t="b">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="2">
+      <c r="H5" s="2">
         <v>0.72750000000000004</v>
       </c>
-      <c r="G5">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4000</v>
       </c>
       <c r="B6">
         <v>3000</v>
       </c>
-      <c r="C6" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
+      <c r="D6" t="b">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="2">
+      <c r="H6" s="2">
         <v>0.68879999999999997</v>
       </c>
-      <c r="G6">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4000</v>
       </c>
       <c r="B7">
         <v>5000</v>
       </c>
-      <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
+      <c r="D7" t="b">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" t="s">
         <v>8</v>
       </c>
-      <c r="F7" s="1">
+      <c r="H7" s="1">
         <v>0.66</v>
       </c>
-      <c r="G7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4000</v>
       </c>
       <c r="B8">
         <v>5000</v>
       </c>
-      <c r="C8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s">
-        <v>10</v>
+      <c r="D8" t="b">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="H8" s="2">
         <v>0.8175</v>
       </c>
-      <c r="G8">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4000</v>
       </c>
       <c r="B9">
         <v>5000</v>
       </c>
-      <c r="C9" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s">
-        <v>10</v>
+      <c r="D9" t="b">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="2">
+      <c r="H9" s="2">
         <v>0.69879999999999998</v>
       </c>
-      <c r="G9">
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4000</v>
+      </c>
+      <c r="B10">
+        <v>5000</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="I10">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4000</v>
+      </c>
+      <c r="B11">
+        <v>5000</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0.74880000000000002</v>
+      </c>
+      <c r="I11">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4000</v>
+      </c>
+      <c r="B12">
+        <v>7000</v>
+      </c>
+      <c r="D12" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.73</v>
+      </c>
+      <c r="I12">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4000</v>
+      </c>
+      <c r="B13">
+        <v>7000</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>10</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0.64749999999999996</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>4000</v>
+      </c>
+      <c r="B14">
+        <v>5000</v>
+      </c>
+      <c r="C14">
+        <v>1064</v>
+      </c>
+      <c r="D14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0.81874999999999998</v>
+      </c>
+      <c r="I14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>4000</v>
+      </c>
+      <c r="B15">
+        <v>5000</v>
+      </c>
+      <c r="C15">
+        <v>1093</v>
+      </c>
+      <c r="D15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0.82125000000000004</v>
+      </c>
+      <c r="I15">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>6000</v>
+      </c>
+      <c r="B17" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1086</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0.84420000000000006</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>6000</v>
+      </c>
+      <c r="B18">
+        <v>5000</v>
+      </c>
+      <c r="C18">
+        <v>1068</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" t="s">
+        <v>7</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0.83750000000000002</v>
+      </c>
+      <c r="I18">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>6000</v>
+      </c>
+      <c r="B19">
+        <v>5000</v>
+      </c>
+      <c r="C19">
+        <v>1076</v>
+      </c>
+      <c r="D19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="I19">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>6000</v>
+      </c>
+      <c r="B20">
+        <v>5000</v>
+      </c>
+      <c r="C20">
+        <v>1049</v>
+      </c>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" t="s">
+        <v>6</v>
+      </c>
+      <c r="G20" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="I20">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>6000</v>
+      </c>
+      <c r="B21">
+        <v>5000</v>
+      </c>
+      <c r="C21">
+        <v>1060</v>
+      </c>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+      <c r="F21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0.61580000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>6000</v>
+      </c>
+      <c r="B22">
+        <v>5000</v>
+      </c>
+      <c r="C22">
+        <v>1052</v>
+      </c>
+      <c r="D22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0.61299999999999999</v>
+      </c>
+      <c r="I22">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>6000</v>
+      </c>
+      <c r="B23">
+        <v>5000</v>
+      </c>
+      <c r="C23">
+        <v>1051</v>
+      </c>
+      <c r="D23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" t="s">
+        <v>12</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0.74080000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>6000</v>
+      </c>
+      <c r="B24">
+        <v>5000</v>
+      </c>
+      <c r="C24">
+        <v>1065</v>
+      </c>
+      <c r="D24" t="s">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" t="s">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>12</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0.745</v>
+      </c>
+      <c r="I24">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>10000</v>
+      </c>
+      <c r="B26">
+        <v>8000</v>
+      </c>
+      <c r="C26">
+        <v>1508</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" t="s">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>8</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0.78799999999999992</v>
+      </c>
+      <c r="I26">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>10000</v>
+      </c>
+      <c r="B27">
+        <v>8000</v>
+      </c>
+      <c r="C27">
+        <v>1505</v>
+      </c>
+      <c r="D27" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" t="s">
+        <v>8</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="I27">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>10000</v>
+      </c>
+      <c r="B28">
+        <v>8000</v>
+      </c>
+      <c r="C28">
+        <v>1478</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" t="s">
+        <v>10</v>
+      </c>
+      <c r="G28" t="s">
+        <v>7</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.82750000000000001</v>
+      </c>
+      <c r="I28">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>10000</v>
+      </c>
+      <c r="B29">
+        <v>8000</v>
+      </c>
+      <c r="C29">
+        <v>1489</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+      <c r="F29" t="s">
+        <v>6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>7</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="I29">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>10000</v>
+      </c>
+      <c r="B30">
+        <v>8000</v>
+      </c>
+      <c r="C30">
+        <v>1500</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0.62949999999999995</v>
+      </c>
+      <c r="I30">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>10000</v>
+      </c>
+      <c r="B31">
+        <v>8000</v>
+      </c>
+      <c r="C31">
+        <v>1503</v>
+      </c>
+      <c r="D31" t="s">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+      <c r="F31" t="s">
+        <v>6</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="I31">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>10000</v>
+      </c>
+      <c r="B32">
+        <v>8000</v>
+      </c>
+      <c r="C32">
+        <v>1485</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0.77500000000000002</v>
+      </c>
+      <c r="I32">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>10000</v>
+      </c>
+      <c r="B33">
+        <v>8000</v>
+      </c>
+      <c r="C33">
+        <v>1530</v>
+      </c>
+      <c r="D33" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I33">
         <v>0.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/modelling/Modelling_Experiments.xlsx
+++ b/modelling/Modelling_Experiments.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALISHA\Desktop\sentiment\modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80349BB0-C51D-4F0F-BA62-60D29E5A37CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D0B779-691A-421D-ABCE-3357DB7DB83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAA4A312-815B-4DCA-97FF-3DB196F71A97}"/>
   </bookViews>
@@ -25,16 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="17">
-  <si>
-    <t>Training Instances</t>
-  </si>
-  <si>
-    <t>Number of Features</t>
-  </si>
-  <si>
-    <t>Stopwords removed</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="18">
   <si>
     <t>Algorithm</t>
   </si>
@@ -42,9 +33,6 @@
     <t>Accuracy</t>
   </si>
   <si>
-    <t>Train/Test Split</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -69,13 +57,28 @@
     <t>KNN</t>
   </si>
   <si>
-    <t>Selected Features</t>
-  </si>
-  <si>
-    <t>Feature Selection</t>
-  </si>
-  <si>
     <t>Tree Based</t>
+  </si>
+  <si>
+    <t>Feature_Selection</t>
+  </si>
+  <si>
+    <t>Training_Instances</t>
+  </si>
+  <si>
+    <t>Number_of_Features</t>
+  </si>
+  <si>
+    <t>Stopwords_removed</t>
+  </si>
+  <si>
+    <t>Train_Test_Split</t>
+  </si>
+  <si>
+    <t>Selected_Features</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
@@ -91,7 +94,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -101,6 +104,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -117,12 +126,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -437,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05852316-5068-498E-818D-7EB28C5409E7}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,31 +465,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="H1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>15</v>
-      </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H1" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -492,13 +503,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H2" s="1">
         <v>0.76</v>
@@ -518,13 +529,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H3" s="2">
         <v>0.78</v>
@@ -544,13 +555,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4" s="2">
         <v>0.79374999999999996</v>
@@ -570,13 +581,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H5" s="2">
         <v>0.72750000000000004</v>
@@ -596,13 +607,13 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H6" s="2">
         <v>0.68879999999999997</v>
@@ -622,13 +633,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H7" s="1">
         <v>0.66</v>
@@ -648,13 +659,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H8" s="2">
         <v>0.8175</v>
@@ -674,13 +685,13 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H9" s="2">
         <v>0.69879999999999998</v>
@@ -700,13 +711,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H10" s="2">
         <v>0.64749999999999996</v>
@@ -726,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H11" s="2">
         <v>0.74880000000000002</v>
@@ -752,13 +763,13 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H12" s="1">
         <v>0.73</v>
@@ -778,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H13" s="2">
         <v>0.64749999999999996</v>
@@ -804,16 +815,16 @@
         <v>1064</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H14" s="2">
         <v>0.81874999999999998</v>
@@ -833,16 +844,16 @@
         <v>1093</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H15" s="2">
         <v>0.82125000000000004</v>
@@ -865,16 +876,16 @@
         <v>1086</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H17" s="4">
         <v>0.84420000000000006</v>
@@ -894,16 +905,16 @@
         <v>1068</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H18" s="2">
         <v>0.83750000000000002</v>
@@ -923,16 +934,16 @@
         <v>1076</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H19" s="2">
         <v>0.78500000000000003</v>
@@ -952,16 +963,16 @@
         <v>1049</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H20" s="2">
         <v>0.79</v>
@@ -981,16 +992,16 @@
         <v>1060</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H21" s="2">
         <v>0.61580000000000001</v>
@@ -1010,16 +1021,16 @@
         <v>1052</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H22" s="2">
         <v>0.61299999999999999</v>
@@ -1039,16 +1050,16 @@
         <v>1051</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H23" s="2">
         <v>0.74080000000000001</v>
@@ -1068,16 +1079,16 @@
         <v>1065</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H24" s="2">
         <v>0.745</v>
@@ -1100,16 +1111,16 @@
         <v>1508</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H26" s="2">
         <v>0.78799999999999992</v>
@@ -1129,16 +1140,16 @@
         <v>1505</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="H27" s="2">
         <v>0.78449999999999998</v>
@@ -1158,16 +1169,16 @@
         <v>1478</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H28" s="2">
         <v>0.82750000000000001</v>
@@ -1187,16 +1198,16 @@
         <v>1489</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H29" s="2">
         <v>0.83599999999999997</v>
@@ -1216,16 +1227,16 @@
         <v>1500</v>
       </c>
       <c r="D30" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H30" s="2">
         <v>0.62949999999999995</v>
@@ -1245,16 +1256,16 @@
         <v>1503</v>
       </c>
       <c r="D31" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H31" s="2">
         <v>0.63800000000000001</v>
@@ -1274,16 +1285,16 @@
         <v>1485</v>
       </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H32" s="2">
         <v>0.77500000000000002</v>
@@ -1303,21 +1314,108 @@
         <v>1530</v>
       </c>
       <c r="D33" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="H33" s="2">
         <v>0.78100000000000003</v>
       </c>
       <c r="I33">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>10000</v>
+      </c>
+      <c r="B34">
+        <v>5000</v>
+      </c>
+      <c r="C34">
+        <v>1039</v>
+      </c>
+      <c r="D34" t="s">
+        <v>10</v>
+      </c>
+      <c r="E34" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="I34">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>15000</v>
+      </c>
+      <c r="B35" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="5">
+        <v>1011</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H35" s="6">
+        <v>0.85260000000000002</v>
+      </c>
+      <c r="I35" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>15000</v>
+      </c>
+      <c r="B36">
+        <v>10000</v>
+      </c>
+      <c r="C36">
+        <v>1752</v>
+      </c>
+      <c r="D36" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="I36">
         <v>0.2</v>
       </c>
     </row>

--- a/modelling/Modelling_Experiments.xlsx
+++ b/modelling/Modelling_Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALISHA\Desktop\sentiment\modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D0B779-691A-421D-ABCE-3357DB7DB83D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A3A0B3-CCD0-49E1-A43F-66D3557602F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAA4A312-815B-4DCA-97FF-3DB196F71A97}"/>
   </bookViews>
@@ -103,13 +103,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05852316-5068-498E-818D-7EB28C5409E7}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -865,32 +865,32 @@
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5">
         <v>6000</v>
       </c>
-      <c r="B17" s="3">
-        <v>5000</v>
-      </c>
-      <c r="C17" s="3">
+      <c r="B17" s="5">
+        <v>5000</v>
+      </c>
+      <c r="C17" s="5">
         <v>1086</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G17" s="3" t="s">
+      <c r="D17" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="6">
         <v>0.84420000000000006</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="5">
         <v>0.2</v>
       </c>
     </row>
@@ -1361,32 +1361,32 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
+    <row r="35" spans="1:9" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
         <v>15000</v>
       </c>
-      <c r="B35" s="5">
-        <v>5000</v>
-      </c>
-      <c r="C35" s="5">
+      <c r="B35" s="3">
+        <v>5000</v>
+      </c>
+      <c r="C35" s="3">
         <v>1011</v>
       </c>
-      <c r="D35" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="G35" s="5" t="s">
+      <c r="D35" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H35" s="6">
+      <c r="H35" s="4">
         <v>0.85260000000000002</v>
       </c>
-      <c r="I35" s="5">
+      <c r="I35" s="3">
         <v>0.2</v>
       </c>
     </row>

--- a/modelling/Modelling_Experiments.xlsx
+++ b/modelling/Modelling_Experiments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ALISHA\Desktop\sentiment\modelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54A3A0B3-CCD0-49E1-A43F-66D3557602F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EEFFD2C-5BE4-4B78-8B94-2423563D9364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{EAA4A312-815B-4DCA-97FF-3DB196F71A97}"/>
   </bookViews>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05852316-5068-498E-818D-7EB28C5409E7}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
